--- a/v1/data.xlsx
+++ b/v1/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37981AD8-5106-4DBB-9051-7314AC094F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DC74AD-4910-48FE-8205-89C6FAAD7CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1164" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>have a nice day</t>
+  </si>
+  <si>
+    <t>what a good day</t>
   </si>
 </sst>
 </file>
@@ -411,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -449,6 +452,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/v1/data.xlsx
+++ b/v1/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coding\Python\E-detail_tool\v1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04DC74AD-4910-48FE-8205-89C6FAAD7CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F9BB4-D91E-44BD-85BA-3B9EFBCDF741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4080" yWindow="1164" windowWidth="16548" windowHeight="9420" xr2:uid="{3C8008EE-17F4-4DD0-897B-0871646D5C5F}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ProjectID_ProjectName</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>what a good day</t>
+  </si>
+  <si>
+    <t>popup count</t>
   </si>
 </sst>
 </file>
@@ -414,47 +417,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6037C9E2-E54E-4A09-98C3-32313390912A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="50" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>5</v>
       </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
